--- a/trend_results/Rivers/MangarangioraatusOrmondvilleSTP_baa62f8b12.xlsx
+++ b/trend_results/Rivers/MangarangioraatusOrmondvilleSTP_baa62f8b12.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.243726645182017</v>
+        <v>0.756273354817983</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.47683049756243</v>
+        <v>0.52316950243757</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0924566603979111</v>
+        <v>0.907543339602089</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.937426125357305</v>
+        <v>0.062573874642695</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">

--- a/trend_results/Rivers/MangarangioraatusOrmondvilleSTP_baa62f8b12.xlsx
+++ b/trend_results/Rivers/MangarangioraatusOrmondvilleSTP_baa62f8b12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.999955956803384</v>
+        <v>0.914111837601393</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.553571428571429</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.342154566744731</v>
+        <v>0.169535474105188</v>
       </c>
       <c r="L2" t="n">
-        <v>0.198959914317946</v>
+        <v>-0.0221904452415341</v>
       </c>
       <c r="M2" t="n">
-        <v>0.497180151216372</v>
+        <v>0.36899466411117</v>
       </c>
       <c r="N2" t="n">
-        <v>16.2930746068919</v>
+        <v>7.37110756979078</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.756273354817983</v>
+        <v>0.294577232725029</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.946428571428571</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.715</v>
+        <v>10.63</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0947890477342168</v>
+        <v>-0.0486784978414441</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.101378764749848</v>
+        <v>-0.138696379012382</v>
       </c>
       <c r="M3" t="n">
-        <v>0.194054087561287</v>
+        <v>0.07380481414833701</v>
       </c>
       <c r="N3" t="n">
-        <v>0.884638802932495</v>
+        <v>-0.457935069063444</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.648489798547325</v>
+        <v>0.926294397007235</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0002502583764919</v>
+        <v>-0.0024612533692722</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0029756138770744</v>
+        <v>-0.0046947091619702</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0019787981914705</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.658574674978761</v>
+        <v>-7.69141677897574</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.941006138161021</v>
+        <v>0.126365889566649</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0175438596491228</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.754385964912281</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="K5" t="n">
-        <v>-20.1834071346622</v>
+        <v>9.285035664751341</v>
       </c>
       <c r="L5" t="n">
-        <v>-44.7244897959184</v>
+        <v>-5.05545799021278</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>35.1434587890166</v>
       </c>
       <c r="N5" t="n">
-        <v>-12.6146294591639</v>
+        <v>4.96525971377077</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.980527281514221</v>
+        <v>0.73211301486289</v>
       </c>
       <c r="G6" t="n">
-        <v>0.76</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="H6" t="n">
-        <v>0.26</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.997622206253805</v>
+        <v>0.9999193069068411</v>
       </c>
       <c r="G7" t="n">
-        <v>0.175438596491228</v>
+        <v>0.192982456140351</v>
       </c>
       <c r="H7" t="n">
         <v>0.192982456140351</v>
@@ -1043,16 +1043,16 @@
         <v>0.004</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0005827891123123999</v>
+        <v>-0.0006754578370937</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0009971799765519001</v>
+        <v>-0.0010435714285714</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.0003331500624897</v>
       </c>
       <c r="N7" t="n">
-        <v>-14.5697278078113</v>
+        <v>-16.8864459273445</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.999802017281783</v>
+        <v>0.29887292785152</v>
       </c>
       <c r="G8" t="n">
         <v>0.0175438596491228</v>
       </c>
       <c r="H8" t="n">
-        <v>0.982456140350877</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.445</v>
+        <v>0.495</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.101403638814016</v>
+        <v>0.0171798138167565</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.138996186127747</v>
+        <v>-0.0504860218601801</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.06384192948680779</v>
+        <v>0.0715096558085971</v>
       </c>
       <c r="N8" t="n">
-        <v>-22.7873345649474</v>
+        <v>3.47066945793061</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1206,35 +1206,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.52316950243757</v>
+        <v>0.15633086187164</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.690909090909091</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.8</v>
+        <v>7.78</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.0289880952380972</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0449907801768783</v>
+        <v>-0.0814130377991216</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0409253651241399</v>
+        <v>0.0178811814804328</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>-0.372597625168344</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.999802017281783</v>
+        <v>0.353127981052426</v>
       </c>
       <c r="G10" t="n">
         <v>0.0175438596491228</v>
@@ -1309,19 +1309,19 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.462</v>
+        <v>0.515</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.102889857194692</v>
+        <v>0.0201939438661903</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.154788866334894</v>
+        <v>-0.0507257055320863</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0624262024359975</v>
+        <v>0.0811369010748362</v>
       </c>
       <c r="N10" t="n">
-        <v>-22.270531860323</v>
+        <v>3.92115414877481</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9995769303847341</v>
+        <v>0.351510201452675</v>
       </c>
       <c r="G11" t="n">
-        <v>0.350877192982456</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.245614035087719</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0.78</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.405576491571256</v>
+        <v>0.0175600961538461</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.724702380952381</v>
+        <v>-0.0541153323325756</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.10276800856136</v>
       </c>
       <c r="N11" t="n">
-        <v>-20.2788245785628</v>
+        <v>2.25129437869822</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.999949611510964</v>
+        <v>0.442480070973808</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.807017543859649</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.67</v>
+        <v>0.049</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.101403638814016</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.164516341810097</v>
+        <v>-0.0024434236220765</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0551888736263736</v>
+        <v>0.0029268264427224</v>
       </c>
       <c r="N12" t="n">
-        <v>-15.1348714647785</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.407390120102981</v>
+        <v>0.144959226971285</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.614035087719298</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.051</v>
+        <v>1.09</v>
       </c>
       <c r="K13" t="n">
-        <v>0.000273306105659</v>
+        <v>0.07024038461538459</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0019998866804321</v>
+        <v>-0.0911666404874819</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0030355684111275</v>
+        <v>0.280405342400087</v>
       </c>
       <c r="N13" t="n">
-        <v>0.535894324821661</v>
+        <v>6.44407198306281</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.975316902624034</v>
+        <v>0.956862215208735</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8245614035087721</v>
+        <v>0.5</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.185509084076301</v>
+        <v>0.06766894772874681</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.364538247952921</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0222843694886997</v>
+        <v>0.133031901093885</v>
       </c>
       <c r="N14" t="n">
-        <v>-19.5272720080317</v>
+        <v>3.38344738643734</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.997569725819857</v>
+        <v>0.715047179016953</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.46875</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>10.425</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0995460158585728</v>
+        <v>0.0167924416771754</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0332347588717015</v>
+        <v>-0.0281691356442262</v>
       </c>
       <c r="M15" t="n">
-        <v>0.145430804351323</v>
+        <v>0.0460586092379426</v>
       </c>
       <c r="N15" t="n">
-        <v>4.97730079292864</v>
+        <v>0.161078577239093</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.907543339602089</v>
+        <v>0.988101321541316</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.879310344827586</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.525</v>
+        <v>0.034</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0380232914165863</v>
+        <v>-0.000995774263904</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0045538359189478</v>
+        <v>-0.0015093854720007</v>
       </c>
       <c r="M16" t="n">
-        <v>0.068692453292997</v>
+        <v>-0.0002206942716618</v>
       </c>
       <c r="N16" t="n">
-        <v>0.361266426760915</v>
+        <v>-2.92874783501187</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1930,35 +1930,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.84014295322696</v>
+        <v>0.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H17" t="n">
-        <v>0.487179487179487</v>
+        <v>0.726495726495726</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.037</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0003334094020994</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001003434065934</v>
+        <v>-6.41878343039918</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0002563812561516</v>
+        <v>7.71411974284862</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.901106492160806</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.913870914242263</v>
+        <v>0.212482672573455</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008547008547008499</v>
+        <v>0.752293577981651</v>
       </c>
       <c r="H18" t="n">
-        <v>0.700854700854701</v>
+        <v>0.275229357798165</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>210</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>-8.027472527472529</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-20.3491116359391</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.26604281934085</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-3.82260596546311</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.762594104083815</v>
+        <v>0.999978749453454</v>
       </c>
       <c r="G19" t="n">
-        <v>0.770642201834862</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="H19" t="n">
-        <v>0.256880733944954</v>
+        <v>0.145299145299145</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0.005</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0003648851148851</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0005232081259525</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-0.0001950443911129</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-7.2977022977023</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,14 +2192,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.999928080180632</v>
+        <v>0.739451777907733</v>
       </c>
       <c r="G20" t="n">
-        <v>0.111111111111111</v>
+        <v>0.0341880341880342</v>
       </c>
       <c r="H20" t="n">
-        <v>0.153846153846154</v>
+        <v>0.9401709401709401</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005</v>
+        <v>0.5389</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0004141156462585</v>
+        <v>-0.0052428229665071</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0006090883824346</v>
+        <v>-0.0225715825222668</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0002171601625657</v>
+        <v>0.0072392387012606</v>
       </c>
       <c r="N20" t="n">
-        <v>-8.28231292517007</v>
+        <v>-0.972874924198771</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.973198666556565</v>
+        <v>0.070812190183778</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0512820512820513</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.923076923076923</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.492</v>
+        <v>7.815</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0160280587833219</v>
+        <v>-0.0125731497418247</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0382845484424312</v>
+        <v>-0.0248469387755098</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.002708606574312</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-3.25773552506543</v>
+        <v>-0.160884833548621</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.062573874642695</v>
+        <v>0.684827792327228</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="H22" t="n">
-        <v>0.552631578947368</v>
+        <v>0.9401709401709401</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>7.835</v>
+        <v>0.57</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0125731497418247</v>
+        <v>-0.0039755102040816</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.023940590157648</v>
+        <v>-0.021136924170345</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0089094898459247</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.160474151140073</v>
+        <v>-0.697457930540637</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.954117154815659</v>
+        <v>0.985934912317284</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0170940170940171</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9401709401709401</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.502</v>
+        <v>0.83</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.015051510989011</v>
+        <v>-0.0210721153846154</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0392399404767441</v>
+        <v>-0.0440545708946772</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.0005451735861756</v>
+        <v>-0.0050119516620168</v>
       </c>
       <c r="N23" t="n">
-        <v>-2.99830896195438</v>
+        <v>-2.53880908248378</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.993486186186269</v>
+        <v>0.990101452783141</v>
       </c>
       <c r="G24" t="n">
-        <v>0.264957264957265</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.153846153846154</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>0.051</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.0013336376083979</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.09995894909688011</v>
+        <v>-0.0020006449322944</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-0.0004765387158623</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>-2.61497570274116</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.999947950994673</v>
+        <v>0.939509499878866</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.811965811965812</v>
+        <v>0.82051282051282</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.79</v>
+        <v>1.23</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0301030219780219</v>
+        <v>-0.0408191216678059</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0501717032967033</v>
+        <v>-0.0882094614415201</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0197615859524417</v>
+        <v>0.0004844651585086</v>
       </c>
       <c r="N25" t="n">
-        <v>-3.81050911114202</v>
+        <v>-3.3186277778704</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2721,188 +2721,6 @@
         </is>
       </c>
       <c r="W25" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Mangarangiora at u/s Ormondville STP</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9985151009902939</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.452991452991453</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-0.0014908163265306</v>
-      </c>
-      <c r="L26" t="n">
-        <v>-0.0020068681318681</v>
-      </c>
-      <c r="M26" t="n">
-        <v>-0.0008125744231541</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.76077097505669</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Virtually certain improving</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>1878758.348</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5554292.094</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Upper Manawatu</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>Mana_1a</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Mangarangiora at u/s Ormondville STP</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.999997872648876</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.837606837606838</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-0.112998180163785</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-0.165634890529609</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-0.0841608798261837</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-8.18827392491198</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Virtually certain improving</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>1878758.348</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5554292.094</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Upper Manawatu</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Mana_1a</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MangarangioraatusOrmondvilleSTP_baa62f8b12.xlsx
+++ b/trend_results/Rivers/MangarangioraatusOrmondvilleSTP_baa62f8b12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="61">
   <si>
     <t>site name</t>
   </si>
@@ -133,31 +133,40 @@
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
     <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
   </si>
   <si>
     <t>Very unlikely increasing</t>
@@ -545,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,13 +648,13 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.914111837601393</v>
+        <v>0.566490286936671</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.692307692307692</v>
+        <v>0.78</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -654,22 +663,22 @@
         <v>2.3</v>
       </c>
       <c r="K2">
-        <v>0.169535474105188</v>
+        <v>0.0193253968253968</v>
       </c>
       <c r="L2">
-        <v>-0.0221904452415341</v>
+        <v>-0.200608895416973</v>
       </c>
       <c r="M2">
-        <v>0.36899466411117</v>
+        <v>0.217512008760382</v>
       </c>
       <c r="N2">
-        <v>7.37110756979078</v>
+        <v>0.840234644582468</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q2">
         <v>1878758.348</v>
@@ -678,19 +687,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -710,37 +719,37 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.294577232725029</v>
+        <v>0.380520380240112</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.964285714285714</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.63</v>
+        <v>10.54</v>
       </c>
       <c r="K3">
-        <v>-0.0486784978414441</v>
+        <v>-0.0118928303805596</v>
       </c>
       <c r="L3">
-        <v>-0.138696379012382</v>
+        <v>-0.138903079643257</v>
       </c>
       <c r="M3">
-        <v>0.07380481414833701</v>
+        <v>0.0525660833845216</v>
       </c>
       <c r="N3">
-        <v>-0.457935069063444</v>
+        <v>-0.112835202851609</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3">
         <v>1878758.348</v>
@@ -749,19 +758,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -781,37 +790,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.926294397007235</v>
+        <v>0.965975802367121</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.614035087719298</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="K4">
-        <v>-0.0024612533692722</v>
+        <v>-0.0025025837649192</v>
       </c>
       <c r="L4">
-        <v>-0.0046947091619702</v>
+        <v>-0.0040137362637362</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>-0.0007300531952964</v>
       </c>
       <c r="N4">
-        <v>-7.69141677897574</v>
+        <v>-8.3419458830643</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q4">
         <v>1878758.348</v>
@@ -820,19 +829,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -852,37 +861,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.126365889566649</v>
+        <v>0.0146362545931523</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.842105263157895</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>187</v>
+        <v>154.4</v>
       </c>
       <c r="K5">
-        <v>9.285035664751341</v>
+        <v>15.3985049627792</v>
       </c>
       <c r="L5">
-        <v>-5.05545799021278</v>
+        <v>1.39373144731399</v>
       </c>
       <c r="M5">
-        <v>35.1434587890166</v>
+        <v>46.675852755614</v>
       </c>
       <c r="N5">
-        <v>4.96525971377077</v>
+        <v>9.97312497589324</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q5">
         <v>1878758.348</v>
@@ -891,19 +900,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -923,16 +932,16 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>0.73211301486289</v>
+        <v>0.0320952427329178</v>
       </c>
       <c r="G6">
-        <v>0.711538461538462</v>
+        <v>0.792452830188679</v>
       </c>
       <c r="H6">
-        <v>0.307692307692308</v>
+        <v>0.226415094339623</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -950,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1878758.348</v>
@@ -962,19 +971,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -994,37 +1003,37 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>0.9999193069068411</v>
+        <v>0.967581713754387</v>
       </c>
       <c r="G7">
-        <v>0.192982456140351</v>
+        <v>0.245614035087719</v>
       </c>
       <c r="H7">
-        <v>0.192982456140351</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K7">
-        <v>-0.0006754578370937</v>
+        <v>-0.0002608928571428</v>
       </c>
       <c r="L7">
-        <v>-0.0010435714285714</v>
+        <v>-0.0006865601503759</v>
       </c>
       <c r="M7">
-        <v>-0.0003331500624897</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>-16.8864459273445</v>
+        <v>-8.696428571428569</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q7">
         <v>1878758.348</v>
@@ -1033,19 +1042,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1065,37 +1074,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.29887292785152</v>
+        <v>0.0032508511865409</v>
       </c>
       <c r="G8">
         <v>0.0175438596491228</v>
       </c>
       <c r="H8">
-        <v>0.9649122807017541</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.495</v>
+        <v>0.488</v>
       </c>
       <c r="K8">
-        <v>0.0171798138167565</v>
+        <v>0.0491682692307693</v>
       </c>
       <c r="L8">
-        <v>-0.0504860218601801</v>
+        <v>0.0215514682938249</v>
       </c>
       <c r="M8">
-        <v>0.0715096558085971</v>
+        <v>0.0967363908449263</v>
       </c>
       <c r="N8">
-        <v>3.47066945793061</v>
+        <v>10.0754650063052</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>1878758.348</v>
@@ -1104,19 +1113,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1136,37 +1145,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.15633086187164</v>
+        <v>0.768966107010146</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.727272727272727</v>
+        <v>0.75</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.78</v>
+        <v>7.805</v>
       </c>
       <c r="K9">
-        <v>-0.0289880952380972</v>
+        <v>0.0152033251903635</v>
       </c>
       <c r="L9">
-        <v>-0.0814130377991216</v>
+        <v>-0.020068681318681</v>
       </c>
       <c r="M9">
-        <v>0.0178811814804328</v>
+        <v>0.0506561701150642</v>
       </c>
       <c r="N9">
-        <v>-0.372597625168344</v>
+        <v>0.194789560414651</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1878758.348</v>
@@ -1175,16 +1184,16 @@
         <v>5554292.094</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1204,34 +1213,34 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.353127981052426</v>
+        <v>0.006432790647278</v>
       </c>
       <c r="G10">
         <v>0.0175438596491228</v>
       </c>
       <c r="H10">
-        <v>0.982456140350877</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.515</v>
+        <v>0.476</v>
       </c>
       <c r="K10">
-        <v>0.0201939438661903</v>
+        <v>0.0393601931157078</v>
       </c>
       <c r="L10">
-        <v>-0.0507257055320863</v>
+        <v>0.0193887035850977</v>
       </c>
       <c r="M10">
-        <v>0.0811369010748362</v>
+        <v>0.09821709586661059</v>
       </c>
       <c r="N10">
-        <v>3.92115414877481</v>
+        <v>8.268948133552071</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P10" t="s">
         <v>45</v>
@@ -1243,19 +1252,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1275,7 +1284,7 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.351510201452675</v>
+        <v>0.0045919949210509</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1287,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="K11">
-        <v>0.0175600961538461</v>
+        <v>0.069150633640553</v>
       </c>
       <c r="L11">
-        <v>-0.0541153323325756</v>
+        <v>0.0311842978570071</v>
       </c>
       <c r="M11">
-        <v>0.10276800856136</v>
+        <v>0.127468240996257</v>
       </c>
       <c r="N11">
-        <v>2.25129437869822</v>
+        <v>8.980601771500391</v>
       </c>
       <c r="O11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" t="s">
         <v>45</v>
@@ -1314,19 +1323,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1346,7 +1355,7 @@
         <v>38</v>
       </c>
       <c r="F12">
-        <v>0.442480070973808</v>
+        <v>0.412714683397552</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1364,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.0024434236220765</v>
+        <v>-0.0024447219589008</v>
       </c>
       <c r="M12">
-        <v>0.0029268264427224</v>
+        <v>0.0028988095238095</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q12">
         <v>1878758.348</v>
@@ -1385,19 +1394,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1417,7 +1426,7 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.144959226971285</v>
+        <v>0.029752342820215</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1429,25 +1438,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.09</v>
+        <v>0.9</v>
       </c>
       <c r="K13">
-        <v>0.07024038461538459</v>
+        <v>0.07654768445839891</v>
       </c>
       <c r="L13">
-        <v>-0.0911666404874819</v>
+        <v>0.013898724331914</v>
       </c>
       <c r="M13">
-        <v>0.280405342400087</v>
+        <v>0.194505271337497</v>
       </c>
       <c r="N13">
-        <v>6.44407198306281</v>
+        <v>8.505298273155431</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>1878758.348</v>
@@ -1456,19 +1465,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1488,13 +1497,13 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.956862215208735</v>
+        <v>0.895128696779108</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.5</v>
+        <v>0.521276595744681</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1503,22 +1512,22 @@
         <v>2</v>
       </c>
       <c r="K14">
-        <v>0.06766894772874681</v>
+        <v>0.0334478021978022</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-0.0022336938340876</v>
       </c>
       <c r="M14">
-        <v>0.133031901093885</v>
+        <v>0.125429258241758</v>
       </c>
       <c r="N14">
-        <v>3.38344738643734</v>
+        <v>1.67239010989011</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q14">
         <v>1878758.348</v>
@@ -1527,19 +1536,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1559,37 +1568,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.715047179016953</v>
+        <v>0.456892190431089</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.862068965517241</v>
+        <v>0.870689655172414</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.425</v>
+        <v>10.44</v>
       </c>
       <c r="K15">
-        <v>0.0167924416771754</v>
+        <v>-0.0021121389883797</v>
       </c>
       <c r="L15">
-        <v>-0.0281691356442262</v>
+        <v>-0.0406021604053327</v>
       </c>
       <c r="M15">
-        <v>0.0460586092379426</v>
+        <v>0.0406458039317394</v>
       </c>
       <c r="N15">
-        <v>0.161078577239093</v>
+        <v>-0.0202312163637908</v>
       </c>
       <c r="O15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q15">
         <v>1878758.348</v>
@@ -1598,19 +1607,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1630,7 +1639,7 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.988101321541316</v>
+        <v>0.99722004909984</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1642,25 +1651,25 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="K16">
-        <v>-0.000995774263904</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="L16">
-        <v>-0.0015093854720007</v>
+        <v>-0.001662289727268</v>
       </c>
       <c r="M16">
-        <v>-0.0002206942716618</v>
+        <v>-0.0003337464370132</v>
       </c>
       <c r="N16">
-        <v>-2.92874783501187</v>
+        <v>-3.04070929070929</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q16">
         <v>1878758.348</v>
@@ -1669,19 +1678,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1698,40 +1707,40 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.553845305822924</v>
       </c>
       <c r="G17">
-        <v>0.008547008547008499</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="H17">
-        <v>0.726495726495726</v>
+        <v>0.7844827586206899</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>200</v>
+        <v>200.8</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>-0.129593588412391</v>
       </c>
       <c r="L17">
-        <v>-6.41878343039918</v>
+        <v>-10.0343406593407</v>
       </c>
       <c r="M17">
-        <v>7.71411974284862</v>
+        <v>6.64695177434031</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>-0.0645386396476049</v>
       </c>
       <c r="O17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q17">
         <v>1878758.348</v>
@@ -1740,19 +1749,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1772,13 +1781,13 @@
         <v>37</v>
       </c>
       <c r="F18">
-        <v>0.212482672573455</v>
+        <v>0.440034241841404</v>
       </c>
       <c r="G18">
-        <v>0.752293577981651</v>
+        <v>0.736363636363636</v>
       </c>
       <c r="H18">
-        <v>0.275229357798165</v>
+        <v>0.290909090909091</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -1799,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q18">
         <v>1878758.348</v>
@@ -1811,19 +1820,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1840,40 +1849,40 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F19">
-        <v>0.999978749453454</v>
+        <v>0.999999083505086</v>
       </c>
       <c r="G19">
-        <v>0.128205128205128</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="H19">
-        <v>0.145299145299145</v>
+        <v>0.136752136752137</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K19">
-        <v>-0.0003648851148851</v>
+        <v>-0.0004690714054813</v>
       </c>
       <c r="L19">
-        <v>-0.0005232081259525</v>
+        <v>-0.0006402278702892</v>
       </c>
       <c r="M19">
-        <v>-0.0001950443911129</v>
+        <v>-0.0002915003990422</v>
       </c>
       <c r="N19">
-        <v>-7.2977022977023</v>
+        <v>-11.726785137034</v>
       </c>
       <c r="O19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1878758.348</v>
@@ -1882,19 +1891,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1914,37 +1923,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.739451777907733</v>
+        <v>0.675326303603339</v>
       </c>
       <c r="G20">
         <v>0.0341880341880342</v>
       </c>
       <c r="H20">
-        <v>0.9401709401709401</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.5389</v>
+        <v>0.537</v>
       </c>
       <c r="K20">
-        <v>-0.0052428229665071</v>
+        <v>-0.0042441900205058</v>
       </c>
       <c r="L20">
-        <v>-0.0225715825222668</v>
+        <v>-0.0232748726201535</v>
       </c>
       <c r="M20">
-        <v>0.0072392387012606</v>
+        <v>0.0067911793039362</v>
       </c>
       <c r="N20">
-        <v>-0.972874924198771</v>
+        <v>-0.790351959125847</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q20">
         <v>1878758.348</v>
@@ -1953,19 +1962,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1985,37 +1994,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.070812190183778</v>
+        <v>0.262420251293748</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.596491228070175</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.815</v>
+        <v>7.82</v>
       </c>
       <c r="K21">
-        <v>-0.0125731497418247</v>
+        <v>-0.0048313492063495</v>
       </c>
       <c r="L21">
-        <v>-0.0248469387755098</v>
+        <v>-0.0173700198901209</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0075236714565746</v>
       </c>
       <c r="N21">
-        <v>-0.160884833548621</v>
+        <v>-0.06178195916048</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q21">
         <v>1878758.348</v>
@@ -2024,16 +2033,16 @@
         <v>5554292.094</v>
       </c>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2053,37 +2062,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.684827792327228</v>
+        <v>0.721795882629241</v>
       </c>
       <c r="G22">
         <v>0.0170940170940171</v>
       </c>
       <c r="H22">
-        <v>0.9401709401709401</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22">
-        <v>0.57</v>
+        <v>0.5548</v>
       </c>
       <c r="K22">
-        <v>-0.0039755102040816</v>
+        <v>-0.0049681989063567</v>
       </c>
       <c r="L22">
-        <v>-0.021136924170345</v>
+        <v>-0.0223737395598382</v>
       </c>
       <c r="M22">
-        <v>0.0089094898459247</v>
+        <v>0.0070467108786524</v>
       </c>
       <c r="N22">
-        <v>-0.697457930540637</v>
+        <v>-0.8954936745416</v>
       </c>
       <c r="O22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q22">
         <v>1878758.348</v>
@@ -2092,19 +2101,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2124,37 +2133,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.985934912317284</v>
+        <v>0.992649053558088</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.777777777777778</v>
+        <v>0.726495726495726</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="K23">
-        <v>-0.0210721153846154</v>
+        <v>-0.01665273556231</v>
       </c>
       <c r="L23">
-        <v>-0.0440545708946772</v>
+        <v>-0.0379120130972923</v>
       </c>
       <c r="M23">
-        <v>-0.0050119516620168</v>
+        <v>-0.0050129213897399</v>
       </c>
       <c r="N23">
-        <v>-2.53880908248378</v>
+        <v>-2.03082141003781</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q23">
         <v>1878758.348</v>
@@ -2163,19 +2172,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2195,7 +2204,7 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.990101452783141</v>
+        <v>0.985991264865767</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2210,22 +2219,22 @@
         <v>0.051</v>
       </c>
       <c r="K24">
-        <v>-0.0013336376083979</v>
+        <v>-0.001337912087912</v>
       </c>
       <c r="L24">
-        <v>-0.0020006449322944</v>
+        <v>-0.0020068681318681</v>
       </c>
       <c r="M24">
-        <v>-0.0004765387158623</v>
+        <v>-0.0003232752483353</v>
       </c>
       <c r="N24">
-        <v>-2.61497570274116</v>
+        <v>-2.62335703512174</v>
       </c>
       <c r="O24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q24">
         <v>1878758.348</v>
@@ -2234,19 +2243,19 @@
         <v>5554292.094</v>
       </c>
       <c r="S24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2266,58 +2275,907 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.939509499878866</v>
+        <v>0.925592025992247</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.82051282051282</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="K25">
-        <v>-0.0408191216678059</v>
+        <v>-0.0350079872204473</v>
       </c>
       <c r="L25">
-        <v>-0.0882094614415201</v>
+        <v>-0.08240515295610169</v>
       </c>
       <c r="M25">
-        <v>0.0004844651585086</v>
+        <v>0.0034320251372388</v>
       </c>
       <c r="N25">
-        <v>-3.3186277778704</v>
+        <v>-2.99213565986729</v>
       </c>
       <c r="O25" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25">
+        <v>1878758.348</v>
+      </c>
+      <c r="R25">
+        <v>5554292.094</v>
+      </c>
+      <c r="S25" t="s">
+        <v>52</v>
+      </c>
+      <c r="T25" t="s">
+        <v>53</v>
+      </c>
+      <c r="U25" t="s">
+        <v>54</v>
+      </c>
+      <c r="V25" t="s">
+        <v>55</v>
+      </c>
+      <c r="W25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <v>0.929008999344398</v>
+      </c>
+      <c r="G26">
+        <v>0.0077519379844961</v>
+      </c>
+      <c r="H26">
+        <v>0.449612403100775</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>0.0277972715141699</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0.06971750481327629</v>
+      </c>
+      <c r="N26">
+        <v>1.38986357570849</v>
+      </c>
+      <c r="O26" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q26">
+        <v>1878758.348</v>
+      </c>
+      <c r="R26">
+        <v>5554292.094</v>
+      </c>
+      <c r="S26" t="s">
+        <v>52</v>
+      </c>
+      <c r="T26" t="s">
+        <v>53</v>
+      </c>
+      <c r="U26" t="s">
+        <v>54</v>
+      </c>
+      <c r="V26" t="s">
+        <v>55</v>
+      </c>
+      <c r="W26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>0.149136158549051</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0.832298136645963</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>10.54</v>
+      </c>
+      <c r="K27">
+        <v>-0.0165095346828916</v>
+      </c>
+      <c r="L27">
+        <v>-0.0415533037922352</v>
+      </c>
+      <c r="M27">
+        <v>0.0069290257449846</v>
+      </c>
+      <c r="N27">
+        <v>-0.156636951450585</v>
+      </c>
+      <c r="O27" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27">
+        <v>1878758.348</v>
+      </c>
+      <c r="R27">
+        <v>5554292.094</v>
+      </c>
+      <c r="S27" t="s">
+        <v>52</v>
+      </c>
+      <c r="T27" t="s">
+        <v>53</v>
+      </c>
+      <c r="U27" t="s">
+        <v>54</v>
+      </c>
+      <c r="V27" t="s">
+        <v>55</v>
+      </c>
+      <c r="W27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28">
+        <v>0.825403232922478</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.37037037037037</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.033</v>
+      </c>
+      <c r="K28">
+        <v>-0.0002508585164835</v>
+      </c>
+      <c r="L28">
+        <v>-0.0005705652237817</v>
+      </c>
+      <c r="M28">
+        <v>0.0001139275810187</v>
+      </c>
+      <c r="N28">
+        <v>-0.760177322677323</v>
+      </c>
+      <c r="O28" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q28">
+        <v>1878758.348</v>
+      </c>
+      <c r="R28">
+        <v>5554292.094</v>
+      </c>
+      <c r="S28" t="s">
+        <v>52</v>
+      </c>
+      <c r="T28" t="s">
+        <v>53</v>
+      </c>
+      <c r="U28" t="s">
+        <v>54</v>
+      </c>
+      <c r="V28" t="s">
+        <v>55</v>
+      </c>
+      <c r="W28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29">
+        <v>0.944531493281488</v>
+      </c>
+      <c r="G29">
+        <v>0.0062111801242236</v>
+      </c>
+      <c r="H29">
+        <v>0.7701863354037271</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>210</v>
+      </c>
+      <c r="K29">
+        <v>-4.9638119405397</v>
+      </c>
+      <c r="L29">
+        <v>-12.4057235105482</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>-2.36371997168557</v>
+      </c>
+      <c r="O29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29">
+        <v>1878758.348</v>
+      </c>
+      <c r="R29">
+        <v>5554292.094</v>
+      </c>
+      <c r="S29" t="s">
+        <v>52</v>
+      </c>
+      <c r="T29" t="s">
+        <v>53</v>
+      </c>
+      <c r="U29" t="s">
+        <v>54</v>
+      </c>
+      <c r="V29" t="s">
+        <v>55</v>
+      </c>
+      <c r="W29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
         <v>39</v>
       </c>
-      <c r="P25" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q25">
-        <v>1878758.348</v>
-      </c>
-      <c r="R25">
-        <v>5554292.094</v>
-      </c>
-      <c r="S25" t="s">
-        <v>49</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="F30">
+        <v>0.998258309942053</v>
+      </c>
+      <c r="G30">
+        <v>0.668831168831169</v>
+      </c>
+      <c r="H30">
+        <v>0.344155844155844</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>0.005</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P30" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q30">
+        <v>1878758.348</v>
+      </c>
+      <c r="R30">
+        <v>5554292.094</v>
+      </c>
+      <c r="S30" t="s">
+        <v>52</v>
+      </c>
+      <c r="T30" t="s">
+        <v>53</v>
+      </c>
+      <c r="U30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V30" t="s">
+        <v>55</v>
+      </c>
+      <c r="W30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31">
+        <v>0.999182005370862</v>
+      </c>
+      <c r="G31">
+        <v>0.141975308641975</v>
+      </c>
+      <c r="H31">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>0.004</v>
+      </c>
+      <c r="K31">
+        <v>-0.0001827620715536</v>
+      </c>
+      <c r="L31">
+        <v>-0.0002998768472906</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>-4.56905178884163</v>
+      </c>
+      <c r="O31" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q31">
+        <v>1878758.348</v>
+      </c>
+      <c r="R31">
+        <v>5554292.094</v>
+      </c>
+      <c r="S31" t="s">
+        <v>52</v>
+      </c>
+      <c r="T31" t="s">
+        <v>53</v>
+      </c>
+      <c r="U31" t="s">
+        <v>54</v>
+      </c>
+      <c r="V31" t="s">
+        <v>55</v>
+      </c>
+      <c r="W31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>0.963997305507533</v>
+      </c>
+      <c r="G32">
+        <v>0.037037037037037</v>
+      </c>
+      <c r="H32">
+        <v>0.919753086419753</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.571</v>
+      </c>
+      <c r="K32">
+        <v>-0.0106868534636231</v>
+      </c>
+      <c r="L32">
+        <v>-0.0204776942898153</v>
+      </c>
+      <c r="M32">
+        <v>-0.0007828953017735</v>
+      </c>
+      <c r="N32">
+        <v>-1.87160305842786</v>
+      </c>
+      <c r="O32" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q32">
+        <v>1878758.348</v>
+      </c>
+      <c r="R32">
+        <v>5554292.094</v>
+      </c>
+      <c r="S32" t="s">
+        <v>52</v>
+      </c>
+      <c r="T32" t="s">
+        <v>53</v>
+      </c>
+      <c r="U32" t="s">
+        <v>54</v>
+      </c>
+      <c r="V32" t="s">
+        <v>55</v>
+      </c>
+      <c r="W32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33">
+        <v>0.067754072741901</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.522012578616352</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>7.85</v>
+      </c>
+      <c r="K33">
+        <v>-0.00844997108155</v>
+      </c>
+      <c r="L33">
+        <v>-0.0166850083056478</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>-0.107642943714013</v>
+      </c>
+      <c r="O33" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q33">
+        <v>1878758.348</v>
+      </c>
+      <c r="R33">
+        <v>5554292.094</v>
+      </c>
+      <c r="S33" t="s">
+        <v>52</v>
+      </c>
+      <c r="T33" t="s">
+        <v>53</v>
+      </c>
+      <c r="U33" t="s">
+        <v>54</v>
+      </c>
+      <c r="V33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34">
+        <v>0.974282761275629</v>
+      </c>
+      <c r="G34">
+        <v>0.0123456790123457</v>
+      </c>
+      <c r="H34">
+        <v>0.932098765432099</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0.575</v>
+      </c>
+      <c r="K34">
+        <v>-0.0101304483472549</v>
+      </c>
+      <c r="L34">
+        <v>-0.0207512172657191</v>
+      </c>
+      <c r="M34">
+        <v>-0.0011042397260424</v>
+      </c>
+      <c r="N34">
+        <v>-1.76181710387043</v>
+      </c>
+      <c r="O34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q34">
+        <v>1878758.348</v>
+      </c>
+      <c r="R34">
+        <v>5554292.094</v>
+      </c>
+      <c r="S34" t="s">
+        <v>52</v>
+      </c>
+      <c r="T34" t="s">
+        <v>53</v>
+      </c>
+      <c r="U34" t="s">
+        <v>54</v>
+      </c>
+      <c r="V34" t="s">
+        <v>55</v>
+      </c>
+      <c r="W34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35">
+        <v>0.999983236240258</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.836</v>
+      </c>
+      <c r="K35">
+        <v>-0.0213594624125874</v>
+      </c>
+      <c r="L35">
+        <v>-0.0319409282227385</v>
+      </c>
+      <c r="M35">
+        <v>-0.0123201669111169</v>
+      </c>
+      <c r="N35">
+        <v>-2.55495961873055</v>
+      </c>
+      <c r="O35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q35">
+        <v>1878758.348</v>
+      </c>
+      <c r="R35">
+        <v>5554292.094</v>
+      </c>
+      <c r="S35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U35" t="s">
+        <v>54</v>
+      </c>
+      <c r="V35" t="s">
+        <v>55</v>
+      </c>
+      <c r="W35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36">
+        <v>0.900312340370478</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.376543209876543</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.0505</v>
+      </c>
+      <c r="K36">
+        <v>-0.0003339437120387</v>
+      </c>
+      <c r="L36">
+        <v>-0.0009981865685400001</v>
+      </c>
+      <c r="M36">
+        <v>8.90047435807735E-05</v>
+      </c>
+      <c r="N36">
+        <v>-0.661274677304476</v>
+      </c>
+      <c r="O36" t="s">
+        <v>40</v>
+      </c>
+      <c r="P36" t="s">
         <v>50</v>
       </c>
-      <c r="U25" t="s">
-        <v>51</v>
-      </c>
-      <c r="V25" t="s">
-        <v>52</v>
-      </c>
-      <c r="W25" t="s">
+      <c r="Q36">
+        <v>1878758.348</v>
+      </c>
+      <c r="R36">
+        <v>5554292.094</v>
+      </c>
+      <c r="S36" t="s">
+        <v>52</v>
+      </c>
+      <c r="T36" t="s">
+        <v>53</v>
+      </c>
+      <c r="U36" t="s">
+        <v>54</v>
+      </c>
+      <c r="V36" t="s">
+        <v>55</v>
+      </c>
+      <c r="W36" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>0.999989786108565</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.8271604938271609</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1.44</v>
+      </c>
+      <c r="K37">
+        <v>-0.07507751294757881</v>
+      </c>
+      <c r="L37">
+        <v>-0.108653722993671</v>
+      </c>
+      <c r="M37">
+        <v>-0.0429862759731353</v>
+      </c>
+      <c r="N37">
+        <v>-5.21371617691519</v>
+      </c>
+      <c r="O37" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q37">
+        <v>1878758.348</v>
+      </c>
+      <c r="R37">
+        <v>5554292.094</v>
+      </c>
+      <c r="S37" t="s">
+        <v>52</v>
+      </c>
+      <c r="T37" t="s">
+        <v>53</v>
+      </c>
+      <c r="U37" t="s">
+        <v>54</v>
+      </c>
+      <c r="V37" t="s">
+        <v>55</v>
+      </c>
+      <c r="W37" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
